--- a/biology/Botanique/Phlegmariurus_squarrosus/Phlegmariurus_squarrosus.xlsx
+++ b/biology/Botanique/Phlegmariurus_squarrosus/Phlegmariurus_squarrosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phlegmariurus squarrosus est une espèce de lycophytes de la famille des Lycopodiaceae[1]. Le genre Phlegmariurus est accepté dans le Pteridophyte Phylogeny Group de la classification de 2016 (PPG I)[2], mais pas dans les autres classifications qui fusionnent ce genre avec le genre Huperzia[3], et range cette espèce sous le taxon 'Huperzia squarrosa[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phlegmariurus squarrosus est une espèce de lycophytes de la famille des Lycopodiaceae. Le genre Phlegmariurus est accepté dans le Pteridophyte Phylogeny Group de la classification de 2016 (PPG I), mais pas dans les autres classifications qui fusionnent ce genre avec le genre Huperzia, et range cette espèce sous le taxon 'Huperzia squarrosa.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a une large répartition depuis l'Ouest de l'océan Indien, en passant par l'Asie tropicale et subtropicale jusqu'à l'Est de l'Australie et le Pacifique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a une large répartition depuis l'Ouest de l'océan Indien, en passant par l'Asie tropicale et subtropicale jusqu'à l'Est de l'Australie et le Pacifique.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus squarrosus (G.Forst.) Á.Löve &amp; D.Löve (d)[6].
-L'espèce a été initialement classée dans le genre Lycopodium sous le basionyme Lycopodium squarrosum G.Forst.[6].
-Phlegmariurus squarrosus a pour synonymes[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus squarrosus (G.Forst.) Á.Löve &amp; D.Löve (d).
+L'espèce a été initialement classée dans le genre Lycopodium sous le basionyme Lycopodium squarrosum G.Forst..
+Phlegmariurus squarrosus a pour synonymes :
 Huperzia acutifolia (Desv ex Poir.) Holub
 Huperzia epiceifolia (Desv. ex Poir.) Trevis.
 Huperzia forsteri Poir.
